--- a/files/Assignme1nt excel.xlsx
+++ b/files/Assignme1nt excel.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sobha\OneDrive\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D036BA3-A77B-4999-BB2B-FFF22780E0BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20712" windowHeight="11736"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12960" xr2:uid="{812ECF55-19AB-46B8-A6FF-60494756C1D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -78,8 +84,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,7 +176,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -222,7 +228,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -416,23 +422,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9F9FC2-A737-4A1F-BD8E-D15D0512248A}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -454,7 +460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -465,7 +471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -476,7 +482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -487,7 +493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -498,7 +504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -509,7 +515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -520,7 +526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
